--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,42 +44,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>绑定不一致的情况，状态是已绑定到人人，但是发布活动时的同步到人人复选框没有打勾的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先不管。因为之前由于重装app等操作清除掉了app上的人人认证信息，然后又用email登入，这时app上没有人人的认证信息，强行发布也会出错，只好去掉这个复选框，点选时会走人人的认证过程才可能发布。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app通过人人网登录，程序crash</t>
+  </si>
+  <si>
+    <t>还未能重现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次使用人人网登录的时候授权页不出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未能重现。另一方面也不影响发布feed的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>关于(1)
     一方面如果根据假设，不存在这个路径。
     另一方面，如果在 “使用人人号1登录，激活email账号1，登入再解除绑定.为了方便再次使用人人号1通过人人网登入”  的这个时候，假定用户是输入email1得到错误而不得不使用email2的，这时如果对用户使用email 1报错详细一点，
     比如“这个email账号已经存在，你要么用这个email帐号登入后再绑定人人帐号，要么输入一个新的email帐号”，这样的错误信息就应该让用户很清楚该做什么了。
+目前的处理是报了如下的错误信息：“该电子邮件地址已经被使用，如果想把它与当前人人帐号关联，可以用邮件地址登入再在设置中绑定人人帐号”。
   关于(2),根据假设，用户就不用清除数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定不一致的情况，状态是已绑定到人人，但是发布活动时的同步到人人复选框没有打勾的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先不管。因为之前由于重装app等操作清除掉了app上的人人认证信息，然后又用email登入，这时app上没有人人的认证信息，强行发布也会出错，只好去掉这个复选框，点选时会走人人的认证过程才可能发布。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app通过人人网登录，程序crash</t>
-  </si>
-  <si>
-    <t>还未能重现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次使用人人网登录的时候授权页不出现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,7 +153,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -476,21 +481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="3" max="3" width="71.296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:3" ht="20.399999999999999">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -501,41 +506,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="170">
+    <row r="2" spans="1:3" ht="226.2">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="69.599999999999994">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -59,10 +59,6 @@
     <t>app通过人人网登录，程序crash</t>
   </si>
   <si>
-    <t>还未能重现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次使用人人网登录的时候授权页不出现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,10 @@
     比如“这个email账号已经存在，你要么用这个email帐号登入后再绑定人人帐号，要么输入一个新的email帐号”，这样的错误信息就应该让用户很清楚该做什么了。
 目前的处理是报了如下的错误信息：“该电子邮件地址已经被使用，如果想把它与当前人人帐号关联，可以用邮件地址登入再在设置中绑定人人帐号”。
   关于(2),根据假设，用户就不用清除数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还未能重现。但是umeng那边抓到了错误信息，是“NullPointerException: replacement == null”。已经把这一处修改了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,6 +104,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -111,6 +112,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -485,14 +487,14 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="14.19921875" customWidth="1"/>
     <col min="2" max="2" width="70.19921875" customWidth="1"/>
-    <col min="3" max="3" width="71.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999">
@@ -502,7 +504,7 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -514,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69.599999999999994">
@@ -531,19 +533,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" ht="52.2">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -583,6 +585,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="33780" yWindow="260" windowWidth="28920" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,12 +79,47 @@
     <t>还未能重现。但是umeng那边抓到了错误信息，是“NullPointerException: replacement == null”。已经把这一处修改了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>注册页面没有家乡这一项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1点击人人登录 2 出现授权页 3 点击关闭取消授权 4后退到主页-》注册页面 5后退到主页-》登录页面 6点击人人网登录 预期结果是本地人人数据已经清除，需要重新授权，实际情况是直接到了人人网授权页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1点击人人登录 2进入激活页面 3取消激活退回到登录页面 4普通用户登录 5进入设置页面，此时显示未绑定 6点击按钮进行绑定操作 预期结果应该是出现人人登录授权，实际结果是直接调用了绑定api并完成了绑定，说明本地人人信息没有清除</t>
+  </si>
+  <si>
+    <t>发布活动页面，发布button，ui上更新下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提为email1与人人1绑定成功—》退出，通过输入邮箱密码输入email2，设置页面进行绑定时，错输入人人1，此时报错为“此用户已与别的账号绑定”，问题是，报错之后再通过设置页面或是发布活动页面，都会一直报这个错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布页面，发布活动时间不能跨年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然现在不只仅针对北大，那发布活动时的系统默认图片需不需要更新下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app中时间和实际时间不一致的问题，比如1-1chat聊天页面最新聊天时间，或是1-1chat最后一条聊天时间和响应者页面时间不同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +151,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,8 +187,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -150,12 +207,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -483,21 +544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="70.19921875" customWidth="1"/>
-    <col min="3" max="3" width="71.296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70.1640625" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -508,8 +569,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="226.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" ht="221">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -519,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="69.599999999999994">
+    <row r="3" spans="1:3" ht="68">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -528,64 +589,106 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" ht="68">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="52.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:3" ht="51">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="4"/>
-    </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="1"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="68">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="1"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33780" yWindow="260" windowWidth="28920" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="36500" yWindow="200" windowWidth="24900" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,12 +114,54 @@
     <t>app中时间和实际时间不一致的问题，比如1-1chat聊天页面最新聊天时间，或是1-1chat最后一条聊天时间和响应者页面时间不同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果现在是12月，支持选1月的日期，当作下一年的。其他的如果选的日期在当前日期前的情况不允许。</t>
+  </si>
+  <si>
+    <t>1-1chat页面，最新聊天距离上一条聊天记录大于5分钟时显示的时间android手机和iphone手机不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联宇在给布新的app程序或是强行停止进程时，本应绑定的app处于未绑定状态，退出再登入时就是绑定状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面，照片拍照时，无法点击“确定”进行上传，关机后就正常啦（ps仅在芯如的手机上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为creater，重复进行取消资格和批准加入多次会报错“内部错误...”,但是其实操作已经被处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+  </si>
+  <si>
+    <t>点击“邀请”button时，弹出的等待对话框中文本为“获取邀请码”，应该更新下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方都评论过后，靠谱指数没有得到及时的更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,13 +211,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,14 +255,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,17 +298,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="30">
+    <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -570,7 +697,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="221">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -581,7 +708,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="68">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -590,14 +719,16 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="68">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -607,7 +738,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -616,37 +749,52 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="68">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:3" ht="34">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="34">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -659,33 +807,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2">
+    <row r="14" spans="1:3" ht="34" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34">
+      <c r="A16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="34">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="34">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A12"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -255,7 +255,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -270,6 +270,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="34">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -329,6 +333,8 @@
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -343,6 +349,8 @@
     <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -808,8 +816,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>30</v>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,14 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未解决</t>
-  </si>
-  <si>
     <t>点击“邀请”button时，弹出的等待对话框中文本为“获取邀请码”，应该更新下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方都评论过后，靠谱指数没有得到及时的更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,12 +230,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,7 +278,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,9 +298,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +667,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -852,16 +836,11 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="1"/>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="36500" yWindow="200" windowWidth="24900" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="37500" yWindow="100" windowWidth="24900" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,26 @@
   </si>
   <si>
     <t>点击“邀请”button时，弹出的等待对话框中文本为“获取邀请码”，应该更新下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击profile页面的，编辑和预览来回切换两三次后，app crash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面，点击注册后没有登录成功，在此点击注册button，报错为“该用户已经被注册”-》通过登录页面邮箱密码登录成功，但无用户头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次登进响应人页面，用户的头像为矩形，正常显示。但是回到我的活动页面再进来就不再是呈矩形显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布活动页面点击预览时，键盘无法自动消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布活动页面，当点击编辑和预览button下部分区域时，反应不太灵敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +262,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -257,6 +277,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -301,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="48">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -319,6 +353,13 @@
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -335,6 +376,13 @@
     <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -840,10 +888,44 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="1"/>
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51">
+      <c r="A20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="34">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="34">
+      <c r="A23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37500" yWindow="100" windowWidth="24900" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="31480" yWindow="-180" windowWidth="24900" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>发布活动页面，当点击编辑和预览button下部分区域时，反应不太灵敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新活动页面，用户的名字显示不出来（仅是大磊的手机）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -927,6 +931,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>最新活动页面，用户的名字显示不出来（仅是大磊的手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置页面和发布页面人人绑定时弹出的对话框的ui问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -936,6 +940,11 @@
         <v>36</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,26 @@
   </si>
   <si>
     <t>设置页面和发布页面人人绑定时弹出的对话框的ui问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在个人资料编辑页面中，选中可输入的选项，键盘弹出来时，点击预览进行切换，页面有断层现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请中的页面，用户头像下也没有名字显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布活动页面，选择条目，键盘显示时，点击预览时，有断层现象并且预览回来时，选中条目ui出现异样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布活动页面，贴张美图时弹出的对话框ui问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要加入，输入文字，点击发送时，会出现“自己输入的内容”is saved的提示框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -285,6 +305,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -343,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="50">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -368,6 +390,7 @@
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -391,6 +414,7 @@
     <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -720,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -936,13 +960,59 @@
       </c>
     </row>
     <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="34">
+      <c r="A26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="34">
+      <c r="A28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="34">
+      <c r="A30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31480" yWindow="-180" windowWidth="24900" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="36540" yWindow="-440" windowWidth="24900" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>我要加入，输入文字，点击发送时，会出现“自己输入的内容”is saved的提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿手机中的message进行测试，test文本在键盘给出的选项中选中后也会出现“输入文字+is saved”的字样，联宇可以作为参考</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +294,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -305,6 +309,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -365,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="54">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -391,6 +399,8 @@
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -415,6 +425,8 @@
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -903,7 +915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34">
+    <row r="17" spans="1:3" ht="34">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -911,7 +923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34">
+    <row r="18" spans="1:3" ht="34">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -919,7 +931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -927,7 +939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51">
+    <row r="20" spans="1:3" ht="51">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
@@ -935,7 +947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34">
+    <row r="21" spans="1:3" ht="34">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -943,7 +955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
@@ -951,7 +963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
@@ -959,60 +971,63 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
-        <v>0</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
-        <v>0</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34">
-      <c r="A26" s="8" t="s">
-        <v>0</v>
+    <row r="26" spans="1:3" ht="34">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>0</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34">
-      <c r="A28" s="8" t="s">
-        <v>0</v>
+    <row r="28" spans="1:3" ht="34">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
-        <v>0</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34">
+    <row r="30" spans="1:3" ht="34">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_android.xlsx
+++ b/test/test_android.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="36540" yWindow="-440" windowWidth="24900" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="36540" yWindow="-444" windowWidth="24900" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,15 +198,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拿手机中的message进行测试，test文本在键盘给出的选项中选中后也会出现“输入文字+is saved”的字样，联宇可以作为参考</t>
+    <t>这个是由于网络慢的问题。注册时会发两个api调用，其中第一个是传文本注册信息，第二个是上传photo。第二个会比较慢，失败的概率在网慢的时候较大，从而导致这种情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿手机中的message进行测试，test文本在键盘给出的选项中选中后也会出现“输入文字+is saved”的字样，联宇可以作为参考。
+这么看来，不是我们app的问题了，而是那个htc手机系统本身的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个目前改不了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,6 +384,33 @@
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="差" xfId="13" builtinId="27"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -401,33 +437,6 @@
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -755,21 +764,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="3" max="3" width="71.296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:3" ht="20.399999999999999">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -780,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="221">
+    <row r="2" spans="1:3" ht="226.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -791,7 +800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68">
+    <row r="3" spans="1:3" ht="69.599999999999994">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -802,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="68">
+    <row r="4" spans="1:3" ht="69.599999999999994">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -810,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="19.95" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -821,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51">
+    <row r="6" spans="1:3" ht="52.2">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -840,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34">
+    <row r="8" spans="1:3" ht="34.799999999999997">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -856,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68">
+    <row r="10" spans="1:3" ht="69.599999999999994">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -864,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34">
+    <row r="11" spans="1:3" ht="34.799999999999997">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -875,7 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34">
+    <row r="12" spans="1:3" ht="34.799999999999997">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -883,7 +892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="68">
+    <row r="13" spans="1:3" ht="69.599999999999994">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -891,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" customHeight="1">
+    <row r="14" spans="1:3" ht="34.049999999999997" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -899,7 +908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34">
+    <row r="15" spans="1:3" ht="34.799999999999997">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -907,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34">
+    <row r="16" spans="1:3" ht="34.799999999999997">
       <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
@@ -915,7 +924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34">
+    <row r="17" spans="1:3" ht="34.799999999999997">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -923,7 +932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34">
+    <row r="18" spans="1:3" ht="34.799999999999997">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -939,15 +948,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51">
+    <row r="20" spans="1:3" ht="52.2">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="34">
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.799999999999997">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -963,13 +975,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34">
+    <row r="23" spans="1:3" ht="34.799999999999997">
       <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
@@ -987,7 +1002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34">
+    <row r="26" spans="1:3" ht="34.799999999999997">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34">
+    <row r="28" spans="1:3" ht="34.799999999999997">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34">
+    <row r="30" spans="1:3" ht="69.599999999999994">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1042,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
